--- a/pred_ohlcv/54_21/2020-01-25 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 WPX ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>730070.4486794948</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>544933.9910794948</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1530326.368205001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1592812.148336711</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1592781.229536711</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1635589.200919173</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1629532.735912131</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1631679.965412131</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1630123.181212131</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1612239.79282807</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1632124.428728071</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1790551.702829104</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1787212.330729104</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1787205.330729104</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1786476.283729104</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1786530.144229104</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1786530.144229104</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1786540.144229104</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1783164.609029104</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1794996.862626843</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1783562.401718671</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1783605.198818671</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1792602.841634107</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1778010.276834107</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1778049.577552361</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1763418.953552361</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1749096.406952361</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1744540.801652361</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1744548.801652361</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1666559.427152361</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1677239.763152361</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1608931.523852361</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1660201.509852361</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1663014.367152361</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1663014.367152361</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1665276.489452361</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1671969.912452361</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1674986.075452361</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1680249.17035236</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1680249.17035236</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1675274.00315236</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1684521.02445236</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1654836.81205236</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1655828.44425236</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1654481.76775236</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1642943.693527086</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1641998.406927086</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1641998.406927086</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1649247.598627086</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1649810.892327086</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1649810.892327086</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1630411.440627086</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1630233.992927086</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1630218.833527086</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1633171.620927086</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1628103.922227086</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1610324.241227086</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1606498.145927086</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1609240.802896742</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1589346.298396742</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1571708.940996742</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>1785719.854977993</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>1221782.988277993</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>1068714.669034785</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 WPX ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>730070.4486794948</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>544933.9910794948</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1498875.948903791</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1519042.208903791</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1541429.985203791</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1540222.627403791</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1551515.751705001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1549672.225805001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1530326.368205001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1588692.939005001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1585385.147505001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1576441.063907893</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1592812.148336711</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1592781.229536711</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1635589.200919173</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1629532.735912131</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1630123.181212131</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1612239.79282807</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1632124.428728071</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1790551.702829104</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1787212.330729104</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1787205.330729104</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1786476.283729104</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1786530.144229104</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1786530.144229104</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1783164.609029104</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1794996.862626843</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1783562.401718671</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1783605.198818671</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1792602.841634107</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1778010.276834107</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1778049.577552361</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1763418.953552361</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1749096.406952361</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1744540.801652361</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1744548.801652361</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1666559.427152361</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1677239.763152361</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1663014.367152361</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1663014.367152361</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1671969.912452361</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1674986.075452361</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1680249.17035236</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1680249.17035236</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1675274.00315236</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1684521.02445236</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1654481.76775236</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1642943.693527086</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1641998.406927086</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1649810.892327086</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2142748.769215543</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>1785719.854977993</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>1221782.988277993</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>1068714.669034785</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>1132268.415054027</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>1125792.901054027</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>1026974.288654028</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>1021863.560686254</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
